--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="lotting" sheetId="1" r:id="rId1"/>
-    <sheet name="Kjønn" sheetId="2" r:id="rId2"/>
-    <sheet name="Bosted" sheetId="3" r:id="rId3"/>
-    <sheet name="Utdanning" sheetId="4" r:id="rId4"/>
-    <sheet name="Alder" sheetId="5" r:id="rId5"/>
+    <sheet name="Alder" sheetId="2" r:id="rId2"/>
+    <sheet name="Utdanning" sheetId="3" r:id="rId3"/>
+    <sheet name="Kjønn" sheetId="4" r:id="rId4"/>
+    <sheet name="Bosted" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Navn</t>
   </si>
@@ -35,70 +35,73 @@
     <t>Kjønn</t>
   </si>
   <si>
+    <t>Reserves</t>
+  </si>
+  <si>
     <t>Konrad</t>
   </si>
   <si>
+    <t>16-25 år</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
     <t>Kåre</t>
   </si>
   <si>
+    <t>36-45 år</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Grunnskole</t>
+  </si>
+  <si>
     <t>Linda</t>
   </si>
   <si>
+    <t>60+ år</t>
+  </si>
+  <si>
+    <t>Trondheim</t>
+  </si>
+  <si>
+    <t>Videregående</t>
+  </si>
+  <si>
+    <t>Kvinne</t>
+  </si>
+  <si>
     <t>Hanne</t>
   </si>
   <si>
+    <t>26-35 år</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Nils</t>
+  </si>
+  <si>
     <t>Lise</t>
   </si>
   <si>
+    <t>46-59 år</t>
+  </si>
+  <si>
     <t>Gunnar</t>
   </si>
   <si>
-    <t>Sigrid</t>
-  </si>
-  <si>
-    <t>Harald</t>
-  </si>
-  <si>
-    <t>16-25 år</t>
-  </si>
-  <si>
-    <t>36-45 år</t>
-  </si>
-  <si>
-    <t>60+ år</t>
-  </si>
-  <si>
-    <t>26-35 år</t>
-  </si>
-  <si>
-    <t>46-59 år</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>Bergen</t>
-  </si>
-  <si>
-    <t>Trondheim</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Grunnskole</t>
-  </si>
-  <si>
-    <t>Videregående</t>
-  </si>
-  <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
-    <t>Mann</t>
-  </si>
-  <si>
-    <t>Kvinne</t>
+    <t>Sara</t>
   </si>
   <si>
     <t>group</t>
@@ -172,21 +175,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Navn" dataDxfId="0"/>
     <tableColumn id="2" name="Alder" dataDxfId="0"/>
     <tableColumn id="3" name="Bosted" dataDxfId="0"/>
     <tableColumn id="4" name="Utdanning" dataDxfId="0"/>
     <tableColumn id="5" name="Kjønn" dataDxfId="0"/>
+    <tableColumn id="6" name="Reserves" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Frame1" displayName="Frame1" ref="A1:D3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Frame1" displayName="Frame1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="group" dataDxfId="0"/>
+    <tableColumn id="2" name="have" dataDxfId="1"/>
+    <tableColumn id="3" name="want" dataDxfId="1"/>
+    <tableColumn id="4" name="diff" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Frame2" displayName="Frame2" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="group" dataDxfId="0"/>
+    <tableColumn id="2" name="have" dataDxfId="1"/>
+    <tableColumn id="3" name="want" dataDxfId="1"/>
+    <tableColumn id="4" name="diff" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Frame3" displayName="Frame3" ref="A1:D3" totalsRowShown="0">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="group" dataDxfId="0"/>
@@ -198,35 +228,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Frame2" displayName="Frame2" ref="A1:D4" totalsRowShown="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Frame4" displayName="Frame4" ref="A1:D4" totalsRowShown="0">
   <autoFilter ref="A1:D4"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="group" dataDxfId="0"/>
-    <tableColumn id="2" name="have" dataDxfId="1"/>
-    <tableColumn id="3" name="want" dataDxfId="1"/>
-    <tableColumn id="4" name="diff" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Frame3" displayName="Frame3" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="group" dataDxfId="0"/>
-    <tableColumn id="2" name="have" dataDxfId="1"/>
-    <tableColumn id="3" name="want" dataDxfId="1"/>
-    <tableColumn id="4" name="diff" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Frame4" displayName="Frame4" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="group" dataDxfId="0"/>
     <tableColumn id="2" name="have" dataDxfId="1"/>
@@ -522,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,141 +548,168 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
+      <c r="F9" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -690,6 +721,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -699,21 +916,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
@@ -727,7 +944,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
@@ -747,7 +964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -757,174 +974,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -932,10 +991,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -943,13 +1002,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -957,43 +1016,15 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
